--- a/sequences/00_retrieval_2.xlsx
+++ b/sequences/00_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1900,6 +1900,30 @@
       <c r="F3" t="s">
         <v>206</v>
       </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -2008,6 +2032,30 @@
       <c r="F6" t="s">
         <v>206</v>
       </c>
+      <c r="G6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2028,6 +2076,30 @@
       <c r="F7" t="s">
         <v>206</v>
       </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2092,6 +2164,30 @@
       <c r="F9" t="s">
         <v>206</v>
       </c>
+      <c r="G9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2332,6 +2428,30 @@
       <c r="F15" t="s">
         <v>206</v>
       </c>
+      <c r="G15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M15" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2484,6 +2604,30 @@
       <c r="F19" t="s">
         <v>206</v>
       </c>
+      <c r="G19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2504,6 +2648,30 @@
       <c r="F20" t="s">
         <v>206</v>
       </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2612,6 +2780,30 @@
       <c r="F23" t="s">
         <v>206</v>
       </c>
+      <c r="G23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2852,6 +3044,30 @@
       <c r="F29" t="s">
         <v>206</v>
       </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2872,6 +3088,30 @@
       <c r="F30" t="s">
         <v>206</v>
       </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" t="s">
+        <v>206</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3024,6 +3264,30 @@
       <c r="F34" t="s">
         <v>206</v>
       </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3088,6 +3352,30 @@
       <c r="F36" t="s">
         <v>206</v>
       </c>
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" t="s">
+        <v>206</v>
+      </c>
+      <c r="M36" t="s">
+        <v>206</v>
+      </c>
+      <c r="N36" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3196,6 +3484,30 @@
       <c r="F39" t="s">
         <v>206</v>
       </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3480,6 +3792,30 @@
       <c r="F46" t="s">
         <v>206</v>
       </c>
+      <c r="G46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" t="s">
+        <v>206</v>
+      </c>
+      <c r="I46" t="s">
+        <v>206</v>
+      </c>
+      <c r="J46" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" t="s">
+        <v>206</v>
+      </c>
+      <c r="L46" t="s">
+        <v>206</v>
+      </c>
+      <c r="M46" t="s">
+        <v>206</v>
+      </c>
+      <c r="N46" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3676,6 +4012,30 @@
       <c r="F51" t="s">
         <v>206</v>
       </c>
+      <c r="G51" t="s">
+        <v>206</v>
+      </c>
+      <c r="H51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J51" t="s">
+        <v>206</v>
+      </c>
+      <c r="K51" t="s">
+        <v>206</v>
+      </c>
+      <c r="L51" t="s">
+        <v>206</v>
+      </c>
+      <c r="M51" t="s">
+        <v>206</v>
+      </c>
+      <c r="N51" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3872,6 +4232,30 @@
       <c r="F56" t="s">
         <v>206</v>
       </c>
+      <c r="G56" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" t="s">
+        <v>206</v>
+      </c>
+      <c r="I56" t="s">
+        <v>206</v>
+      </c>
+      <c r="J56" t="s">
+        <v>206</v>
+      </c>
+      <c r="K56" t="s">
+        <v>206</v>
+      </c>
+      <c r="L56" t="s">
+        <v>206</v>
+      </c>
+      <c r="M56" t="s">
+        <v>206</v>
+      </c>
+      <c r="N56" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3936,6 +4320,30 @@
       <c r="F58" t="s">
         <v>206</v>
       </c>
+      <c r="G58" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" t="s">
+        <v>206</v>
+      </c>
+      <c r="I58" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" t="s">
+        <v>206</v>
+      </c>
+      <c r="K58" t="s">
+        <v>206</v>
+      </c>
+      <c r="L58" t="s">
+        <v>206</v>
+      </c>
+      <c r="M58" t="s">
+        <v>206</v>
+      </c>
+      <c r="N58" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4176,6 +4584,30 @@
       <c r="F64" t="s">
         <v>206</v>
       </c>
+      <c r="G64" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L64" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" t="s">
+        <v>206</v>
+      </c>
+      <c r="N64" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4372,6 +4804,30 @@
       <c r="F69" t="s">
         <v>206</v>
       </c>
+      <c r="G69" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" t="s">
+        <v>206</v>
+      </c>
+      <c r="J69" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" t="s">
+        <v>206</v>
+      </c>
+      <c r="L69" t="s">
+        <v>206</v>
+      </c>
+      <c r="M69" t="s">
+        <v>206</v>
+      </c>
+      <c r="N69" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4480,6 +4936,30 @@
       <c r="F72" t="s">
         <v>206</v>
       </c>
+      <c r="G72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" t="s">
+        <v>206</v>
+      </c>
+      <c r="J72" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" t="s">
+        <v>206</v>
+      </c>
+      <c r="L72" t="s">
+        <v>206</v>
+      </c>
+      <c r="M72" t="s">
+        <v>206</v>
+      </c>
+      <c r="N72" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4500,6 +4980,30 @@
       <c r="F73" t="s">
         <v>206</v>
       </c>
+      <c r="G73" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J73" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" t="s">
+        <v>206</v>
+      </c>
+      <c r="L73" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" t="s">
+        <v>206</v>
+      </c>
+      <c r="N73" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4564,6 +5068,30 @@
       <c r="F75" t="s">
         <v>206</v>
       </c>
+      <c r="G75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" t="s">
+        <v>206</v>
+      </c>
+      <c r="I75" t="s">
+        <v>206</v>
+      </c>
+      <c r="J75" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75" t="s">
+        <v>206</v>
+      </c>
+      <c r="L75" t="s">
+        <v>206</v>
+      </c>
+      <c r="M75" t="s">
+        <v>206</v>
+      </c>
+      <c r="N75" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4628,6 +5156,30 @@
       <c r="F77" t="s">
         <v>206</v>
       </c>
+      <c r="G77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" t="s">
+        <v>206</v>
+      </c>
+      <c r="I77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J77" t="s">
+        <v>206</v>
+      </c>
+      <c r="K77" t="s">
+        <v>206</v>
+      </c>
+      <c r="L77" t="s">
+        <v>206</v>
+      </c>
+      <c r="M77" t="s">
+        <v>206</v>
+      </c>
+      <c r="N77" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4692,6 +5244,30 @@
       <c r="F79" t="s">
         <v>206</v>
       </c>
+      <c r="G79" t="s">
+        <v>206</v>
+      </c>
+      <c r="H79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I79" t="s">
+        <v>206</v>
+      </c>
+      <c r="J79" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79" t="s">
+        <v>206</v>
+      </c>
+      <c r="L79" t="s">
+        <v>206</v>
+      </c>
+      <c r="M79" t="s">
+        <v>206</v>
+      </c>
+      <c r="N79" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4844,6 +5420,30 @@
       <c r="F83" t="s">
         <v>206</v>
       </c>
+      <c r="G83" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" t="s">
+        <v>206</v>
+      </c>
+      <c r="I83" t="s">
+        <v>206</v>
+      </c>
+      <c r="J83" t="s">
+        <v>206</v>
+      </c>
+      <c r="K83" t="s">
+        <v>206</v>
+      </c>
+      <c r="L83" t="s">
+        <v>206</v>
+      </c>
+      <c r="M83" t="s">
+        <v>206</v>
+      </c>
+      <c r="N83" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4952,6 +5552,30 @@
       <c r="F86" t="s">
         <v>206</v>
       </c>
+      <c r="G86" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" t="s">
+        <v>206</v>
+      </c>
+      <c r="J86" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" t="s">
+        <v>206</v>
+      </c>
+      <c r="L86" t="s">
+        <v>206</v>
+      </c>
+      <c r="M86" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -4972,6 +5596,30 @@
       <c r="F87" t="s">
         <v>206</v>
       </c>
+      <c r="G87" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" t="s">
+        <v>206</v>
+      </c>
+      <c r="I87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J87" t="s">
+        <v>206</v>
+      </c>
+      <c r="K87" t="s">
+        <v>206</v>
+      </c>
+      <c r="L87" t="s">
+        <v>206</v>
+      </c>
+      <c r="M87" t="s">
+        <v>206</v>
+      </c>
+      <c r="N87" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -5036,6 +5684,30 @@
       <c r="F89" t="s">
         <v>206</v>
       </c>
+      <c r="G89" t="s">
+        <v>206</v>
+      </c>
+      <c r="H89" t="s">
+        <v>206</v>
+      </c>
+      <c r="I89" t="s">
+        <v>206</v>
+      </c>
+      <c r="J89" t="s">
+        <v>206</v>
+      </c>
+      <c r="K89" t="s">
+        <v>206</v>
+      </c>
+      <c r="L89" t="s">
+        <v>206</v>
+      </c>
+      <c r="M89" t="s">
+        <v>206</v>
+      </c>
+      <c r="N89" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5100,6 +5772,30 @@
       <c r="F91" t="s">
         <v>206</v>
       </c>
+      <c r="G91" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" t="s">
+        <v>206</v>
+      </c>
+      <c r="N91" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5164,6 +5860,30 @@
       <c r="F93" t="s">
         <v>206</v>
       </c>
+      <c r="G93" t="s">
+        <v>206</v>
+      </c>
+      <c r="H93" t="s">
+        <v>206</v>
+      </c>
+      <c r="I93" t="s">
+        <v>206</v>
+      </c>
+      <c r="J93" t="s">
+        <v>206</v>
+      </c>
+      <c r="K93" t="s">
+        <v>206</v>
+      </c>
+      <c r="L93" t="s">
+        <v>206</v>
+      </c>
+      <c r="M93" t="s">
+        <v>206</v>
+      </c>
+      <c r="N93" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5228,6 +5948,30 @@
       <c r="F95" t="s">
         <v>206</v>
       </c>
+      <c r="G95" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" t="s">
+        <v>206</v>
+      </c>
+      <c r="I95" t="s">
+        <v>206</v>
+      </c>
+      <c r="J95" t="s">
+        <v>206</v>
+      </c>
+      <c r="K95" t="s">
+        <v>206</v>
+      </c>
+      <c r="L95" t="s">
+        <v>206</v>
+      </c>
+      <c r="M95" t="s">
+        <v>206</v>
+      </c>
+      <c r="N95" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5380,6 +6124,30 @@
       <c r="F99" t="s">
         <v>206</v>
       </c>
+      <c r="G99" t="s">
+        <v>206</v>
+      </c>
+      <c r="H99" t="s">
+        <v>206</v>
+      </c>
+      <c r="I99" t="s">
+        <v>206</v>
+      </c>
+      <c r="J99" t="s">
+        <v>206</v>
+      </c>
+      <c r="K99" t="s">
+        <v>206</v>
+      </c>
+      <c r="L99" t="s">
+        <v>206</v>
+      </c>
+      <c r="M99" t="s">
+        <v>206</v>
+      </c>
+      <c r="N99" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5532,6 +6300,30 @@
       <c r="F103" t="s">
         <v>206</v>
       </c>
+      <c r="G103" t="s">
+        <v>206</v>
+      </c>
+      <c r="H103" t="s">
+        <v>206</v>
+      </c>
+      <c r="I103" t="s">
+        <v>206</v>
+      </c>
+      <c r="J103" t="s">
+        <v>206</v>
+      </c>
+      <c r="K103" t="s">
+        <v>206</v>
+      </c>
+      <c r="L103" t="s">
+        <v>206</v>
+      </c>
+      <c r="M103" t="s">
+        <v>206</v>
+      </c>
+      <c r="N103" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5596,6 +6388,30 @@
       <c r="F105" t="s">
         <v>206</v>
       </c>
+      <c r="G105" t="s">
+        <v>206</v>
+      </c>
+      <c r="H105" t="s">
+        <v>206</v>
+      </c>
+      <c r="I105" t="s">
+        <v>206</v>
+      </c>
+      <c r="J105" t="s">
+        <v>206</v>
+      </c>
+      <c r="K105" t="s">
+        <v>206</v>
+      </c>
+      <c r="L105" t="s">
+        <v>206</v>
+      </c>
+      <c r="M105" t="s">
+        <v>206</v>
+      </c>
+      <c r="N105" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5660,6 +6476,30 @@
       <c r="F107" t="s">
         <v>206</v>
       </c>
+      <c r="G107" t="s">
+        <v>206</v>
+      </c>
+      <c r="H107" t="s">
+        <v>206</v>
+      </c>
+      <c r="I107" t="s">
+        <v>206</v>
+      </c>
+      <c r="J107" t="s">
+        <v>206</v>
+      </c>
+      <c r="K107" t="s">
+        <v>206</v>
+      </c>
+      <c r="L107" t="s">
+        <v>206</v>
+      </c>
+      <c r="M107" t="s">
+        <v>206</v>
+      </c>
+      <c r="N107" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5680,6 +6520,30 @@
       <c r="F108" t="s">
         <v>206</v>
       </c>
+      <c r="G108" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108" t="s">
+        <v>206</v>
+      </c>
+      <c r="I108" t="s">
+        <v>206</v>
+      </c>
+      <c r="J108" t="s">
+        <v>206</v>
+      </c>
+      <c r="K108" t="s">
+        <v>206</v>
+      </c>
+      <c r="L108" t="s">
+        <v>206</v>
+      </c>
+      <c r="M108" t="s">
+        <v>206</v>
+      </c>
+      <c r="N108" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5788,6 +6652,30 @@
       <c r="F111" t="s">
         <v>206</v>
       </c>
+      <c r="G111" t="s">
+        <v>206</v>
+      </c>
+      <c r="H111" t="s">
+        <v>206</v>
+      </c>
+      <c r="I111" t="s">
+        <v>206</v>
+      </c>
+      <c r="J111" t="s">
+        <v>206</v>
+      </c>
+      <c r="K111" t="s">
+        <v>206</v>
+      </c>
+      <c r="L111" t="s">
+        <v>206</v>
+      </c>
+      <c r="M111" t="s">
+        <v>206</v>
+      </c>
+      <c r="N111" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5808,6 +6696,30 @@
       <c r="F112" t="s">
         <v>206</v>
       </c>
+      <c r="G112" t="s">
+        <v>206</v>
+      </c>
+      <c r="H112" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" t="s">
+        <v>206</v>
+      </c>
+      <c r="J112" t="s">
+        <v>206</v>
+      </c>
+      <c r="K112" t="s">
+        <v>206</v>
+      </c>
+      <c r="L112" t="s">
+        <v>206</v>
+      </c>
+      <c r="M112" t="s">
+        <v>206</v>
+      </c>
+      <c r="N112" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5960,6 +6872,30 @@
       <c r="F116" t="s">
         <v>206</v>
       </c>
+      <c r="G116" t="s">
+        <v>206</v>
+      </c>
+      <c r="H116" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" t="s">
+        <v>206</v>
+      </c>
+      <c r="J116" t="s">
+        <v>206</v>
+      </c>
+      <c r="K116" t="s">
+        <v>206</v>
+      </c>
+      <c r="L116" t="s">
+        <v>206</v>
+      </c>
+      <c r="M116" t="s">
+        <v>206</v>
+      </c>
+      <c r="N116" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>206</v>
       </c>
+      <c r="G123" t="s">
+        <v>206</v>
+      </c>
+      <c r="H123" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" t="s">
+        <v>206</v>
+      </c>
+      <c r="J123" t="s">
+        <v>206</v>
+      </c>
+      <c r="K123" t="s">
+        <v>206</v>
+      </c>
+      <c r="L123" t="s">
+        <v>206</v>
+      </c>
+      <c r="M123" t="s">
+        <v>206</v>
+      </c>
+      <c r="N123" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6264,6 +7224,30 @@
       <c r="F124" t="s">
         <v>206</v>
       </c>
+      <c r="G124" t="s">
+        <v>206</v>
+      </c>
+      <c r="H124" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" t="s">
+        <v>206</v>
+      </c>
+      <c r="J124" t="s">
+        <v>206</v>
+      </c>
+      <c r="K124" t="s">
+        <v>206</v>
+      </c>
+      <c r="L124" t="s">
+        <v>206</v>
+      </c>
+      <c r="M124" t="s">
+        <v>206</v>
+      </c>
+      <c r="N124" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6284,6 +7268,30 @@
       <c r="F125" t="s">
         <v>206</v>
       </c>
+      <c r="G125" t="s">
+        <v>206</v>
+      </c>
+      <c r="H125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I125" t="s">
+        <v>206</v>
+      </c>
+      <c r="J125" t="s">
+        <v>206</v>
+      </c>
+      <c r="K125" t="s">
+        <v>206</v>
+      </c>
+      <c r="L125" t="s">
+        <v>206</v>
+      </c>
+      <c r="M125" t="s">
+        <v>206</v>
+      </c>
+      <c r="N125" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6304,6 +7312,30 @@
       <c r="F126" t="s">
         <v>206</v>
       </c>
+      <c r="G126" t="s">
+        <v>206</v>
+      </c>
+      <c r="H126" t="s">
+        <v>206</v>
+      </c>
+      <c r="I126" t="s">
+        <v>206</v>
+      </c>
+      <c r="J126" t="s">
+        <v>206</v>
+      </c>
+      <c r="K126" t="s">
+        <v>206</v>
+      </c>
+      <c r="L126" t="s">
+        <v>206</v>
+      </c>
+      <c r="M126" t="s">
+        <v>206</v>
+      </c>
+      <c r="N126" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6544,6 +7576,30 @@
       <c r="F132" t="s">
         <v>206</v>
       </c>
+      <c r="G132" t="s">
+        <v>206</v>
+      </c>
+      <c r="H132" t="s">
+        <v>206</v>
+      </c>
+      <c r="I132" t="s">
+        <v>206</v>
+      </c>
+      <c r="J132" t="s">
+        <v>206</v>
+      </c>
+      <c r="K132" t="s">
+        <v>206</v>
+      </c>
+      <c r="L132" t="s">
+        <v>206</v>
+      </c>
+      <c r="M132" t="s">
+        <v>206</v>
+      </c>
+      <c r="N132" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6608,6 +7664,30 @@
       <c r="F134" t="s">
         <v>206</v>
       </c>
+      <c r="G134" t="s">
+        <v>206</v>
+      </c>
+      <c r="H134" t="s">
+        <v>206</v>
+      </c>
+      <c r="I134" t="s">
+        <v>206</v>
+      </c>
+      <c r="J134" t="s">
+        <v>206</v>
+      </c>
+      <c r="K134" t="s">
+        <v>206</v>
+      </c>
+      <c r="L134" t="s">
+        <v>206</v>
+      </c>
+      <c r="M134" t="s">
+        <v>206</v>
+      </c>
+      <c r="N134" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6716,6 +7796,30 @@
       <c r="F137" t="s">
         <v>206</v>
       </c>
+      <c r="G137" t="s">
+        <v>206</v>
+      </c>
+      <c r="H137" t="s">
+        <v>206</v>
+      </c>
+      <c r="I137" t="s">
+        <v>206</v>
+      </c>
+      <c r="J137" t="s">
+        <v>206</v>
+      </c>
+      <c r="K137" t="s">
+        <v>206</v>
+      </c>
+      <c r="L137" t="s">
+        <v>206</v>
+      </c>
+      <c r="M137" t="s">
+        <v>206</v>
+      </c>
+      <c r="N137" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6912,6 +8016,30 @@
       <c r="F142" t="s">
         <v>206</v>
       </c>
+      <c r="G142" t="s">
+        <v>206</v>
+      </c>
+      <c r="H142" t="s">
+        <v>206</v>
+      </c>
+      <c r="I142" t="s">
+        <v>206</v>
+      </c>
+      <c r="J142" t="s">
+        <v>206</v>
+      </c>
+      <c r="K142" t="s">
+        <v>206</v>
+      </c>
+      <c r="L142" t="s">
+        <v>206</v>
+      </c>
+      <c r="M142" t="s">
+        <v>206</v>
+      </c>
+      <c r="N142" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -7020,6 +8148,30 @@
       <c r="F145" t="s">
         <v>206</v>
       </c>
+      <c r="G145" t="s">
+        <v>206</v>
+      </c>
+      <c r="H145" t="s">
+        <v>206</v>
+      </c>
+      <c r="I145" t="s">
+        <v>206</v>
+      </c>
+      <c r="J145" t="s">
+        <v>206</v>
+      </c>
+      <c r="K145" t="s">
+        <v>206</v>
+      </c>
+      <c r="L145" t="s">
+        <v>206</v>
+      </c>
+      <c r="M145" t="s">
+        <v>206</v>
+      </c>
+      <c r="N145" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7040,6 +8192,30 @@
       <c r="F146" t="s">
         <v>206</v>
       </c>
+      <c r="G146" t="s">
+        <v>206</v>
+      </c>
+      <c r="H146" t="s">
+        <v>206</v>
+      </c>
+      <c r="I146" t="s">
+        <v>206</v>
+      </c>
+      <c r="J146" t="s">
+        <v>206</v>
+      </c>
+      <c r="K146" t="s">
+        <v>206</v>
+      </c>
+      <c r="L146" t="s">
+        <v>206</v>
+      </c>
+      <c r="M146" t="s">
+        <v>206</v>
+      </c>
+      <c r="N146" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7192,6 +8368,30 @@
       <c r="F150" t="s">
         <v>206</v>
       </c>
+      <c r="G150" t="s">
+        <v>206</v>
+      </c>
+      <c r="H150" t="s">
+        <v>206</v>
+      </c>
+      <c r="I150" t="s">
+        <v>206</v>
+      </c>
+      <c r="J150" t="s">
+        <v>206</v>
+      </c>
+      <c r="K150" t="s">
+        <v>206</v>
+      </c>
+      <c r="L150" t="s">
+        <v>206</v>
+      </c>
+      <c r="M150" t="s">
+        <v>206</v>
+      </c>
+      <c r="N150" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7300,6 +8500,30 @@
       <c r="F153" t="s">
         <v>206</v>
       </c>
+      <c r="G153" t="s">
+        <v>206</v>
+      </c>
+      <c r="H153" t="s">
+        <v>206</v>
+      </c>
+      <c r="I153" t="s">
+        <v>206</v>
+      </c>
+      <c r="J153" t="s">
+        <v>206</v>
+      </c>
+      <c r="K153" t="s">
+        <v>206</v>
+      </c>
+      <c r="L153" t="s">
+        <v>206</v>
+      </c>
+      <c r="M153" t="s">
+        <v>206</v>
+      </c>
+      <c r="N153" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7408,6 +8632,30 @@
       <c r="F156" t="s">
         <v>206</v>
       </c>
+      <c r="G156" t="s">
+        <v>206</v>
+      </c>
+      <c r="H156" t="s">
+        <v>206</v>
+      </c>
+      <c r="I156" t="s">
+        <v>206</v>
+      </c>
+      <c r="J156" t="s">
+        <v>206</v>
+      </c>
+      <c r="K156" t="s">
+        <v>206</v>
+      </c>
+      <c r="L156" t="s">
+        <v>206</v>
+      </c>
+      <c r="M156" t="s">
+        <v>206</v>
+      </c>
+      <c r="N156" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7428,6 +8676,30 @@
       <c r="F157" t="s">
         <v>206</v>
       </c>
+      <c r="G157" t="s">
+        <v>206</v>
+      </c>
+      <c r="H157" t="s">
+        <v>206</v>
+      </c>
+      <c r="I157" t="s">
+        <v>206</v>
+      </c>
+      <c r="J157" t="s">
+        <v>206</v>
+      </c>
+      <c r="K157" t="s">
+        <v>206</v>
+      </c>
+      <c r="L157" t="s">
+        <v>206</v>
+      </c>
+      <c r="M157" t="s">
+        <v>206</v>
+      </c>
+      <c r="N157" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7492,6 +8764,30 @@
       <c r="F159" t="s">
         <v>206</v>
       </c>
+      <c r="G159" t="s">
+        <v>206</v>
+      </c>
+      <c r="H159" t="s">
+        <v>206</v>
+      </c>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+      <c r="J159" t="s">
+        <v>206</v>
+      </c>
+      <c r="K159" t="s">
+        <v>206</v>
+      </c>
+      <c r="L159" t="s">
+        <v>206</v>
+      </c>
+      <c r="M159" t="s">
+        <v>206</v>
+      </c>
+      <c r="N159" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7688,6 +8984,30 @@
       <c r="F164" t="s">
         <v>206</v>
       </c>
+      <c r="G164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H164" t="s">
+        <v>206</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+      <c r="J164" t="s">
+        <v>206</v>
+      </c>
+      <c r="K164" t="s">
+        <v>206</v>
+      </c>
+      <c r="L164" t="s">
+        <v>206</v>
+      </c>
+      <c r="M164" t="s">
+        <v>206</v>
+      </c>
+      <c r="N164" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7752,6 +9072,30 @@
       <c r="F166" t="s">
         <v>206</v>
       </c>
+      <c r="G166" t="s">
+        <v>206</v>
+      </c>
+      <c r="H166" t="s">
+        <v>206</v>
+      </c>
+      <c r="I166" t="s">
+        <v>206</v>
+      </c>
+      <c r="J166" t="s">
+        <v>206</v>
+      </c>
+      <c r="K166" t="s">
+        <v>206</v>
+      </c>
+      <c r="L166" t="s">
+        <v>206</v>
+      </c>
+      <c r="M166" t="s">
+        <v>206</v>
+      </c>
+      <c r="N166" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -8036,6 +9380,30 @@
       <c r="F173" t="s">
         <v>206</v>
       </c>
+      <c r="G173" t="s">
+        <v>206</v>
+      </c>
+      <c r="H173" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>206</v>
+      </c>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+      <c r="K173" t="s">
+        <v>206</v>
+      </c>
+      <c r="L173" t="s">
+        <v>206</v>
+      </c>
+      <c r="M173" t="s">
+        <v>206</v>
+      </c>
+      <c r="N173" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8188,6 +9556,30 @@
       <c r="F177" t="s">
         <v>206</v>
       </c>
+      <c r="G177" t="s">
+        <v>206</v>
+      </c>
+      <c r="H177" t="s">
+        <v>206</v>
+      </c>
+      <c r="I177" t="s">
+        <v>206</v>
+      </c>
+      <c r="J177" t="s">
+        <v>206</v>
+      </c>
+      <c r="K177" t="s">
+        <v>206</v>
+      </c>
+      <c r="L177" t="s">
+        <v>206</v>
+      </c>
+      <c r="M177" t="s">
+        <v>206</v>
+      </c>
+      <c r="N177" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8296,6 +9688,30 @@
       <c r="F180" t="s">
         <v>206</v>
       </c>
+      <c r="G180" t="s">
+        <v>206</v>
+      </c>
+      <c r="H180" t="s">
+        <v>206</v>
+      </c>
+      <c r="I180" t="s">
+        <v>206</v>
+      </c>
+      <c r="J180" t="s">
+        <v>206</v>
+      </c>
+      <c r="K180" t="s">
+        <v>206</v>
+      </c>
+      <c r="L180" t="s">
+        <v>206</v>
+      </c>
+      <c r="M180" t="s">
+        <v>206</v>
+      </c>
+      <c r="N180" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8404,6 +9820,30 @@
       <c r="F183" t="s">
         <v>206</v>
       </c>
+      <c r="G183" t="s">
+        <v>206</v>
+      </c>
+      <c r="H183" t="s">
+        <v>206</v>
+      </c>
+      <c r="I183" t="s">
+        <v>206</v>
+      </c>
+      <c r="J183" t="s">
+        <v>206</v>
+      </c>
+      <c r="K183" t="s">
+        <v>206</v>
+      </c>
+      <c r="L183" t="s">
+        <v>206</v>
+      </c>
+      <c r="M183" t="s">
+        <v>206</v>
+      </c>
+      <c r="N183" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8468,6 +9908,30 @@
       <c r="F185" t="s">
         <v>206</v>
       </c>
+      <c r="G185" t="s">
+        <v>206</v>
+      </c>
+      <c r="H185" t="s">
+        <v>206</v>
+      </c>
+      <c r="I185" t="s">
+        <v>206</v>
+      </c>
+      <c r="J185" t="s">
+        <v>206</v>
+      </c>
+      <c r="K185" t="s">
+        <v>206</v>
+      </c>
+      <c r="L185" t="s">
+        <v>206</v>
+      </c>
+      <c r="M185" t="s">
+        <v>206</v>
+      </c>
+      <c r="N185" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>206</v>
       </c>
+      <c r="G186" t="s">
+        <v>206</v>
+      </c>
+      <c r="H186" t="s">
+        <v>206</v>
+      </c>
+      <c r="I186" t="s">
+        <v>206</v>
+      </c>
+      <c r="J186" t="s">
+        <v>206</v>
+      </c>
+      <c r="K186" t="s">
+        <v>206</v>
+      </c>
+      <c r="L186" t="s">
+        <v>206</v>
+      </c>
+      <c r="M186" t="s">
+        <v>206</v>
+      </c>
+      <c r="N186" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8552,6 +10040,30 @@
       <c r="F188" t="s">
         <v>206</v>
       </c>
+      <c r="G188" t="s">
+        <v>206</v>
+      </c>
+      <c r="H188" t="s">
+        <v>206</v>
+      </c>
+      <c r="I188" t="s">
+        <v>206</v>
+      </c>
+      <c r="J188" t="s">
+        <v>206</v>
+      </c>
+      <c r="K188" t="s">
+        <v>206</v>
+      </c>
+      <c r="L188" t="s">
+        <v>206</v>
+      </c>
+      <c r="M188" t="s">
+        <v>206</v>
+      </c>
+      <c r="N188" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8729,7 +10241,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>206</v>
+      </c>
+      <c r="G193" t="s">
+        <v>206</v>
+      </c>
+      <c r="H193" t="s">
+        <v>206</v>
+      </c>
+      <c r="I193" t="s">
+        <v>206</v>
+      </c>
+      <c r="J193" t="s">
+        <v>206</v>
+      </c>
+      <c r="K193" t="s">
+        <v>206</v>
+      </c>
+      <c r="L193" t="s">
+        <v>206</v>
+      </c>
+      <c r="M193" t="s">
+        <v>206</v>
+      </c>
+      <c r="N193" t="s">
         <v>206</v>
       </c>
     </row>

--- a/sequences/00_retrieval_2.xlsx
+++ b/sequences/00_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
     <t>spielen</t>
   </si>
   <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>heißen</t>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>schwören</t>
   </si>
   <si>
     <t>drohen</t>
   </si>
   <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>graben</t>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>reizen</t>
   </si>
   <si>
     <t>lächeln</t>
   </si>
   <si>
-    <t>baden</t>
+    <t>fehlen</t>
   </si>
   <si>
     <t>liefern</t>
   </si>
   <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>lesen</t>
   </si>
   <si>
     <t>loben</t>
   </si>
   <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>knien</t>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
   </si>
   <si>
     <t>dog/dog003.jpg</t>
